--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T18:39:22+00:00</t>
+    <t>2024-09-12T09:13:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T09:13:24+00:00</t>
+    <t>2024-09-12T16:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T16:58:21+00:00</t>
+    <t>2024-09-17T12:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T12:39:21+00:00</t>
+    <t>2024-09-17T13:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:24:04+00:00</t>
+    <t>2024-09-17T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:52:39+00:00</t>
+    <t>2024-09-17T14:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:02:22+00:00</t>
+    <t>2024-09-17T14:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:11:23+00:00</t>
+    <t>2024-09-17T14:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:20:09+00:00</t>
+    <t>2024-09-17T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:52:20+00:00</t>
+    <t>2024-09-17T17:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T17:35:28+00:00</t>
+    <t>2024-09-17T18:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:06:53+00:00</t>
+    <t>2024-09-17T18:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:22:57+00:00</t>
+    <t>2024-09-17T20:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:06:55+00:00</t>
+    <t>2024-09-17T20:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:22:56+00:00</t>
+    <t>2024-09-18T05:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T05:27:51+00:00</t>
+    <t>2024-09-19T11:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T11:50:53+00:00</t>
+    <t>2024-09-19T12:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:04:20+00:00</t>
+    <t>2024-09-22T15:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T15:40:07+00:00</t>
+    <t>2024-09-23T07:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T07:19:12+00:00</t>
+    <t>2024-09-23T11:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:09:48+00:00</t>
+    <t>2024-09-23T11:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:29:53+00:00</t>
+    <t>2024-09-23T11:42:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:42:54+00:00</t>
+    <t>2024-09-23T12:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T12:18:50+00:00</t>
+    <t>2024-09-23T18:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T18:28:00+00:00</t>
+    <t>2024-09-23T19:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:43:17+00:00</t>
+    <t>2024-09-23T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:56:54+00:00</t>
+    <t>2024-09-24T07:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T07:39:02+00:00</t>
+    <t>2024-09-25T11:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:00:26+00:00</t>
+    <t>2024-09-25T11:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:40:05+00:00</t>
+    <t>2024-09-25T11:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:54:18+00:00</t>
+    <t>2024-09-25T12:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:http://example.org/StructureDefinition/MOPEDAccount#Account</t>
+    <t>element:http://example.org/StructureDefinition/MOPEDClaim#Claim</t>
   </si>
   <si>
     <t>ID</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T12:57:21+00:00</t>
+    <t>2024-09-25T14:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:29:33+00:00</t>
+    <t>2024-09-25T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:44:31+00:00</t>
+    <t>2024-09-26T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:10:34+00:00</t>
+    <t>2024-09-26T07:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:17:19+00:00</t>
+    <t>2024-09-26T07:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:48:16+00:00</t>
+    <t>2024-09-26T07:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:51:13+00:00</t>
+    <t>2024-09-26T08:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:50:40+00:00</t>
+    <t>2024-09-26T08:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-AccountRef.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:56:22+00:00</t>
+    <t>2024-09-26T09:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
